--- a/motor-control/maybe-bom.xlsx
+++ b/motor-control/maybe-bom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -63,6 +63,408 @@
   </si>
   <si>
     <t>C:\Program Files\KiCad\bin\xsltproc.exe -v -o outputfile.csv "C:\Program Files\KiCad\bin\scripting\plugins\bom2csv.xsl" _saved_motor-control.xml</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Footprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Datasheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Voltage</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>to_motor_phase_1</t>
+  </si>
+  <si>
+    <t>Connect:Banana_Jack_1Pin</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>to_motor_phase_2</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>to_motor_phase_3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>CONN_02X12</t>
+  </si>
+  <si>
+    <t>Pin_Headers:Pin_Header_Straight_2x12</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>Resistors_SMD:R_0805</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>CONN_01X01</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>ADT7301</t>
+  </si>
+  <si>
+    <t>p16261:ADT7301</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>CONN_01X04</t>
+  </si>
+  <si>
+    <t>Pin_Headers:Pin_Header_Straight_1x04</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>470uF</t>
+  </si>
+  <si>
+    <t>Capacitors_ThroughHole:C_Radial_D16_L30_P7.5</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=P5850-ND</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>csd19505kcs</t>
+  </si>
+  <si>
+    <t>p16261:csd19505kcs</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/CSD19505KCS/?qs=%252bFzhjShcsaJOb21rbgU2rQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>ACS770</t>
+  </si>
+  <si>
+    <t>p16261:ACS770xCB</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=ACS770LCB-050U-PFF-T</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>.33R</t>
+  </si>
+  <si>
+    <t>Resistors_ThroughHole:Resistor_Vertical_RM7.5mm</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Yageo/SQP500JB-0R33/?qs=%2fha2pyFaduhSb4SMxcoHiCHz89Y6TvvmQXdghjvD2SGXJnxgjfI32w%3d%3d</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>DRV8301</t>
+  </si>
+  <si>
+    <t>p16261:DRV8301</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>0.47nF</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0805</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>100 V</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>10 V</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>22uH</t>
+  </si>
+  <si>
+    <t>Inductors:INDUCTOR_V</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Diodes_ThroughHole:Diode_TO-247_Vertical</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>6.3 V</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>16 V</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>2700 pF</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>6.8 pF</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>76.8k</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>800k</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>4k</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>0.022uF</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C21</t>
   </si>
 </sst>
 </file>
@@ -381,14 +783,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="132.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -444,7 +850,997 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" t="s">
+        <v>98</v>
+      </c>
+      <c r="F90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="D15:H91">
+    <sortCondition ref="D15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/motor-control/maybe-bom.xlsx
+++ b/motor-control/maybe-bom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="148">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>C21</t>
+  </si>
+  <si>
+    <t>"C:\Program Files\KiCad\bin\xsltproc.exe" -v -o motor-interface-rev1.csv "C:\Program Files\KiCad\bin\scripting\plugins\bom2csv.xsl" motor-interface-rev1.xml</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +853,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>13</v>
